--- a/update_db/product_sushi.xlsx
+++ b/update_db/product_sushi.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="аким, елиз, анаст" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'аким, елиз, анаст'!$A$1:$V$17</definedName>
@@ -22,13 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="138">
-  <si>
-    <t>Елизавета</t>
-  </si>
-  <si>
-    <t>серебро 925, позолота 999</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="482">
   <si>
     <t>name</t>
   </si>
@@ -60,12 +55,6 @@
     <t>image_path</t>
   </si>
   <si>
-    <t>05020</t>
-  </si>
-  <si>
-    <t>Цвет эмали может отличаться от представленного! Процветший Крест символизирует Спасителя, Который, умерев на Кресте, сделал его источником жизни и бессмертия. Вечная жизнь пришла в мир через Крест. Поэтому Крест Господень образно называют Древом Жизни и часто украшают растительными побегами и различным орнаментом.</t>
-  </si>
-  <si>
     <t>meta_keywords</t>
   </si>
   <si>
@@ -78,21 +67,9 @@
     <t>comment</t>
   </si>
   <si>
-    <t>2.00 г</t>
-  </si>
-  <si>
     <t>dimension</t>
   </si>
   <si>
-    <t>Бусина Процветший крест 05020</t>
-  </si>
-  <si>
-    <t>busina-procvetshiy-krest-05020</t>
-  </si>
-  <si>
-    <t>busina-procvetshiy-krest-05020;busina-procvetshiy-krest-05020_2</t>
-  </si>
-  <si>
     <t>product_id</t>
   </si>
   <si>
@@ -117,15 +94,9 @@
     <t>similar_product_id</t>
   </si>
   <si>
-    <t>1600</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>золочение, чернение, горячая эмаль, ручная работа</t>
-  </si>
-  <si>
     <t>В нашем интернет магазине Вы можете приобрести недорогое изделие ручной работы - «Птицы небесные 15.002», выполненное по всем православным канонам.</t>
   </si>
   <si>
@@ -171,15 +142,9 @@
     <t>В нашем интернет магазине Вы можете приобрести недорогое изделие ручной работы - «Бусина Процветший крест 05026», выполненное по всем православным канонам.</t>
   </si>
   <si>
-    <t>бусина процветший крест 05020, интернет-магазин, купить, недорого, доставка, Москва</t>
-  </si>
-  <si>
     <t>В нашем интернет магазине Вы можете приобрести недорогое изделие ручной работы - «Бусина Процветший крест 05020», выполненное по всем православным канонам.</t>
   </si>
   <si>
-    <t>Бусина Процветший крест 05020. Изделие освящено</t>
-  </si>
-  <si>
     <t>Калифорния</t>
   </si>
   <si>
@@ -318,9 +283,6 @@
     <t>Острый</t>
   </si>
   <si>
-    <t>Лосось, снежный краб, сливочный сыр, огурец, соус Спайси, соус Ширачи, зеленый лук, кунжут</t>
-  </si>
-  <si>
     <t>Угорь Косио</t>
   </si>
   <si>
@@ -330,9 +292,6 @@
     <t>угорь косио, интернет-магазин, купить, недорого, доставка, Москва</t>
   </si>
   <si>
-    <t>Угорь, сливочный сыр, омлет Томаго, томат, соус Спайси, соус Ширачи, кунжут, кинза</t>
-  </si>
-  <si>
     <t>Эби темпура</t>
   </si>
   <si>
@@ -354,9 +313,6 @@
     <t>240 г</t>
   </si>
   <si>
-    <t>Курицы копчёная, сливочный сыр, огурц, томат, китайская капуста, перец болгарский, соус Спайси, соус Кисло-сладкий, зеленый лук, кунжут</t>
-  </si>
-  <si>
     <t>Тариник спайс</t>
   </si>
   <si>
@@ -369,9 +325,6 @@
     <t>229 г</t>
   </si>
   <si>
-    <t>Курица, сливочный сыр, китайская капуста, перец болгарский, лук зеленый, моус Ширачи</t>
-  </si>
-  <si>
     <t>Вегетарианский</t>
   </si>
   <si>
@@ -399,9 +352,6 @@
     <t>креветка кримэ, интернет-магазин, купить, недорого, доставка, Москва</t>
   </si>
   <si>
-    <t>Креветка, снежный краб, сливочный сыр, огурец, икра Масаго</t>
-  </si>
-  <si>
     <t>filadelfiya-v-ugre</t>
   </si>
   <si>
@@ -436,6 +386,1089 @@
   </si>
   <si>
     <t>Роллы</t>
+  </si>
+  <si>
+    <t>Ролл запечённый с лососем</t>
+  </si>
+  <si>
+    <t>roll-zapechyonniy-s-lososem</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>запеченный ролл, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>260 г</t>
+  </si>
+  <si>
+    <t>Лосось, сливочный сыр, огурец, соус Розовый, соус Унаги, омлет Тамаго, рис, икра Масаго</t>
+  </si>
+  <si>
+    <t>Ролл запечённый с креветкой</t>
+  </si>
+  <si>
+    <t>roll-zapechyonniy-s-krevetkoy</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>Креветка, сливочный сыр, огурец, авокадо, соус Спайси, соус Унаги, омлет Тамаго, рис, икра Масаго</t>
+  </si>
+  <si>
+    <t>Ролл запечённый с угрём</t>
+  </si>
+  <si>
+    <t>roll-zapechyonniy-s-ugryom</t>
+  </si>
+  <si>
+    <t>439</t>
+  </si>
+  <si>
+    <t>270 г</t>
+  </si>
+  <si>
+    <t>Угорь, сливочный сыр, огурец, соус Спайси, соус Унаги, омлет Тамаго, рис, икра Масаго</t>
+  </si>
+  <si>
+    <t>Креветка, снежный краб, сливочный сыр, огурец, рис, икра Масаго</t>
+  </si>
+  <si>
+    <t>Курица, сливочный сыр, китайская капуста, перец болгарский, лук зеленый, рис, соус Ширачи</t>
+  </si>
+  <si>
+    <t>Курицы копчёная, сливочный сыр, огурец, томат, китайская капуста, перец болгарский, соус Спайси, соус Кисло-сладкий, зеленый лук, рис, кунжут</t>
+  </si>
+  <si>
+    <t>Угорь, сливочный сыр, омлет Томаго, томат, соус Спайси, соус Ширачи, рис, кунжут, кинза</t>
+  </si>
+  <si>
+    <t>Лосось, снежный краб, сливочный сыр, огурец, соус Спайси, соус Ширачи, рис, зеленый лук, кунжут</t>
+  </si>
+  <si>
+    <t>Лосось в темпуре</t>
+  </si>
+  <si>
+    <t>losos-v-tempure</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>лосось, темпура, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>190 г</t>
+  </si>
+  <si>
+    <t>Угорь в темпуре</t>
+  </si>
+  <si>
+    <t>ugor-v-tempure</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>угорь темпура, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>Лосось, сливочный сыр, авокадо, икра Масаго, рис, темпура, сухари</t>
+  </si>
+  <si>
+    <t>Угорь, сливочный сыр, авокадо, рис, темпура, сухари</t>
+  </si>
+  <si>
+    <t>Суши Чикен спайс</t>
+  </si>
+  <si>
+    <t>sushi-chiken-spays</t>
+  </si>
+  <si>
+    <t>Суши</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>чикен, суши, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>1 шт</t>
+  </si>
+  <si>
+    <t>Курица, перец болгарский, лук зеленый, соус Ширачи, нори, рис</t>
+  </si>
+  <si>
+    <t>Суши острые с мидиями</t>
+  </si>
+  <si>
+    <t>sushi-ostrye-s-midiyami</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>Мидии острые, суши, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>Мидии, соус Спайси, нори, рис</t>
+  </si>
+  <si>
+    <t>Суши острые с крабом</t>
+  </si>
+  <si>
+    <t>Суши острые с креветкой</t>
+  </si>
+  <si>
+    <t>Суши острые с лососем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Суши острые с угрём </t>
+  </si>
+  <si>
+    <t>Суши острые с тигровой креветкой</t>
+  </si>
+  <si>
+    <t>sushi-ostrye-s-krabom</t>
+  </si>
+  <si>
+    <t>sushi-ostrye-s-krevetkoy</t>
+  </si>
+  <si>
+    <t>sushi-ostrye-s-lososem</t>
+  </si>
+  <si>
+    <t>sushi-ostrye-s-ugryom</t>
+  </si>
+  <si>
+    <t>sushi-ostrye-s-tigrovoy-krevetkoy</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>Краб, острые, суши, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>Лосось, острые, суши, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>Креветка, острые, суши, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>Угорь, острые, суши, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>Тигровые креветки острые, суши, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>Краб, соус Спайси, нори, рис</t>
+  </si>
+  <si>
+    <t>Креветка, соус Спайси, нори, рис</t>
+  </si>
+  <si>
+    <t>Лосось, соус Спайси, нори, рис</t>
+  </si>
+  <si>
+    <t>Угорь, соус Спайси, нори, рис</t>
+  </si>
+  <si>
+    <t>Тигровая креветка, соус Спайси, нори, рис</t>
+  </si>
+  <si>
+    <t>Суши запечённые с крабом</t>
+  </si>
+  <si>
+    <t>Суши запечённые с креветкой</t>
+  </si>
+  <si>
+    <t>Суши запечённые с мидиями</t>
+  </si>
+  <si>
+    <t>Суши запечённые с лососем</t>
+  </si>
+  <si>
+    <t>Суши запечённые с тигровой креветкой</t>
+  </si>
+  <si>
+    <t>Суши запечённые с угрём</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>sushi-zapechyonnye-s-krabom</t>
+  </si>
+  <si>
+    <t>sushi-zapechyonnye-s-krevetkoy</t>
+  </si>
+  <si>
+    <t>sushi-zapechyonnye-s-midiyami</t>
+  </si>
+  <si>
+    <t>sushi-zapechyonnye-s-lososem</t>
+  </si>
+  <si>
+    <t>sushi-zapechyonnye-s-tigrovoy-krevetkoy</t>
+  </si>
+  <si>
+    <t>sushi-zapechyonnye-s-ugryom</t>
+  </si>
+  <si>
+    <t>Краб, суши, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>Краб, запеченные, суши, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>Угорь, запеченные, суши, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>Тигровая креветка, запеченные, суши, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>Лосось, запеченные, суши, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>Мидии, запеченные, суши, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>Креветка, запеченные, суши, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Суши с креветкой в сливочном сыре </t>
+  </si>
+  <si>
+    <t>Суши с тигровой креветкой</t>
+  </si>
+  <si>
+    <t>Суши с копчённым лососем</t>
+  </si>
+  <si>
+    <t>Суши с чукой</t>
+  </si>
+  <si>
+    <t>Суши с лососем</t>
+  </si>
+  <si>
+    <t>Суши с крабом</t>
+  </si>
+  <si>
+    <t>Суши с угрём</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>sushi-s-krevetkoy-v-slivochnom-syre</t>
+  </si>
+  <si>
+    <t>sushi-s-tigrovoy-krevetkoy</t>
+  </si>
+  <si>
+    <t>sushi-s-kopchyonym-lososem</t>
+  </si>
+  <si>
+    <t>sushi-s-chukoy</t>
+  </si>
+  <si>
+    <t>sushi-s-lososem</t>
+  </si>
+  <si>
+    <t>sushi-s-krabom</t>
+  </si>
+  <si>
+    <t>sushi-s-ugryom</t>
+  </si>
+  <si>
+    <t>Креветка в сливочном сыре, суши, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>Тигровая креветка, суши, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>Копченный лосось, суши, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>Чука, суши, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>Лосось, суши, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>Угорь, суши, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>Краб, соус Розовый, соус Унаги, нори, рис</t>
+  </si>
+  <si>
+    <t>Креветка, соус Розовый, соус Унаги, нори, рис</t>
+  </si>
+  <si>
+    <t>Мидии, соус Розовый, соус Унаги, нори, рис</t>
+  </si>
+  <si>
+    <t>Лосось, соус Розовый, соус Унаги, нори, рис</t>
+  </si>
+  <si>
+    <t>Тигровая креветка, соус Розовый, соус Унаги, нори, рис</t>
+  </si>
+  <si>
+    <t>Угорь, соус Розовый, соус Унаги, нори, рис</t>
+  </si>
+  <si>
+    <t>Краб, нори, рис</t>
+  </si>
+  <si>
+    <t>Лосось, рис</t>
+  </si>
+  <si>
+    <t>Угорь, соус Унаги, нори, рис, кунжут</t>
+  </si>
+  <si>
+    <t>Тигровая креветка, рис</t>
+  </si>
+  <si>
+    <t>Копчённый лосось, рис</t>
+  </si>
+  <si>
+    <t>Чука, нори</t>
+  </si>
+  <si>
+    <t>Креветка, сливочный сыр, нори</t>
+  </si>
+  <si>
+    <t>Сливки с лососем</t>
+  </si>
+  <si>
+    <t>Суп куриный</t>
+  </si>
+  <si>
+    <t>Мисо суп</t>
+  </si>
+  <si>
+    <t>Кимчи</t>
+  </si>
+  <si>
+    <t>slivki-s-lososem</t>
+  </si>
+  <si>
+    <t>sup-kuriniy</t>
+  </si>
+  <si>
+    <t>miso-sup</t>
+  </si>
+  <si>
+    <t>kimchi</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>Сливки с лососем, суп, суши, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>Куриный суп, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>Мисо суп, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>Кимчи, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>1 порция</t>
+  </si>
+  <si>
+    <t>280 г</t>
+  </si>
+  <si>
+    <t>320 г</t>
+  </si>
+  <si>
+    <t>Лосось, рыбный бульон, морковь, рис, соус Унаги, зеленый лук</t>
+  </si>
+  <si>
+    <t>Курица, рыбный бульон, лапша Удон, зеленый лук, кунжут</t>
+  </si>
+  <si>
+    <t>Тофу, мисо бульон, водоросли Вакаме, зеленый лук</t>
+  </si>
+  <si>
+    <t>Яйцо куриное, тофу, мисо бульон, водоросли Вакаме, соус Ширачи, кимчи, кунжутное масло, кунжут</t>
+  </si>
+  <si>
+    <t>Мидии Гигант запечённые</t>
+  </si>
+  <si>
+    <t>Креветки тигровые в темпуре</t>
+  </si>
+  <si>
+    <t>Крылья в медовом соусе на подушке из жаренной фунчозы</t>
+  </si>
+  <si>
+    <t>Мясо в устричном соусе</t>
+  </si>
+  <si>
+    <t>Мясо в кисло-сладком соусе на рисовой подушке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лосось под сливочным сыром под соусом Унаги </t>
+  </si>
+  <si>
+    <t>Горячие блюда</t>
+  </si>
+  <si>
+    <t>midii-gigant-zapechyonnye</t>
+  </si>
+  <si>
+    <t>krevetki-tigrovye-v-tempure</t>
+  </si>
+  <si>
+    <t>krylya-v-medovom-souse-na-podushke-iz-zharennoy-funchozy</t>
+  </si>
+  <si>
+    <t>myaso-v-ustrichnom-souse</t>
+  </si>
+  <si>
+    <t>myaso-v-kislo-sladkom-souse-na-risovoy-podushke</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>Мидии гигант, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>Креветка в темпуре, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>Мясо, устричный соус, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>Крылья в медовом соусе, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>Мясо, кисло-сладкий соус, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>Лосось под сливочным сыром, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>275 г</t>
+  </si>
+  <si>
+    <t>170 г</t>
+  </si>
+  <si>
+    <t>100 г</t>
+  </si>
+  <si>
+    <t>на выбор: говядина или свинина</t>
+  </si>
+  <si>
+    <t>Свинина или говядина, болгарский перец, консервированный ананас, соус Сладкий Чили, рис, растительное масло</t>
+  </si>
+  <si>
+    <t>Свинина или говядина, соус Устричный, спаржа, грибы шиитаке, грибы шампиньоны, китайская капуста, рисовая лапша</t>
+  </si>
+  <si>
+    <t>Лосось, рис, сливки, шпинат, соус Унаги, чеснок, соус Терияки</t>
+  </si>
+  <si>
+    <t>Крылья куриные, мёд, соус Соевый, фунчоза</t>
+  </si>
+  <si>
+    <t>Тигровые креветки, кляр, сухари</t>
+  </si>
+  <si>
+    <t>Мидии, соус Унаги, лимон, кунжут, соус Розовый</t>
+  </si>
+  <si>
+    <t>losos-pod-slivochnym-syrom-pod-sousom-unagi</t>
+  </si>
+  <si>
+    <t>Битые огурцы</t>
+  </si>
+  <si>
+    <t>Хрустящие баклажаны с томатами</t>
+  </si>
+  <si>
+    <t>Салат Чука с ореховым соусом</t>
+  </si>
+  <si>
+    <t>Салат Лосось&amp;Креветка</t>
+  </si>
+  <si>
+    <t>Салат Витамин</t>
+  </si>
+  <si>
+    <t>bitye-ogurzy</t>
+  </si>
+  <si>
+    <t>hrustyaschie-baklazhany-s-tomatami</t>
+  </si>
+  <si>
+    <t>salat-chuka-s-orehovym-sousom</t>
+  </si>
+  <si>
+    <t>salat-losos-&amp;-krevetka</t>
+  </si>
+  <si>
+    <t>salat vitamin</t>
+  </si>
+  <si>
+    <t>Салаты</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>Битые огурцы, салат, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>Хрустящие баклажаны, салат, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>Чука, салат, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>6 шт</t>
+  </si>
+  <si>
+    <t>5 шт</t>
+  </si>
+  <si>
+    <t>Лосось, креветка, салат, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>Витамин, салат, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>140 г</t>
+  </si>
+  <si>
+    <t>Огурцы, орех кешью, кунжут, кунжутное масло, соус Соевый, чеснок, сушиза</t>
+  </si>
+  <si>
+    <t>Баклажаны, томаты, чеснок, кинза, жареный арахис, кунжутное масло</t>
+  </si>
+  <si>
+    <t>Чука, ореховый соус, водоросли Вакаме, лимон, кунжут</t>
+  </si>
+  <si>
+    <t>Копчёный лосось, креветки, фунчоза, болгарский перец, китайская капуста, соус салатный Дрессинг, кунжут</t>
+  </si>
+  <si>
+    <t>Китайская капуста, огурец, болгарский перец, морковь, соус БО</t>
+  </si>
+  <si>
+    <t>Лапша пшеничная Удон (бол.)</t>
+  </si>
+  <si>
+    <t>Рис (бол.)</t>
+  </si>
+  <si>
+    <t>Фунчоза (бол.)</t>
+  </si>
+  <si>
+    <t>Лапша пшеничная Рамен (бол.)</t>
+  </si>
+  <si>
+    <t>Лапша яичная (бол.)</t>
+  </si>
+  <si>
+    <t>Лапша гречневая (бол.)</t>
+  </si>
+  <si>
+    <t>Лапша рисовая (бол.)</t>
+  </si>
+  <si>
+    <t>Лапша пшеничная Удон (мал.)</t>
+  </si>
+  <si>
+    <t>Лапша рисовая (мал.)</t>
+  </si>
+  <si>
+    <t>Лапша гречневая (мал.)</t>
+  </si>
+  <si>
+    <t>Лапша яичная (мал.)</t>
+  </si>
+  <si>
+    <t>Лапша пшеничная Рамен (мал.)</t>
+  </si>
+  <si>
+    <t>Фунчоза (мал.)</t>
+  </si>
+  <si>
+    <t>Рис (мал.)</t>
+  </si>
+  <si>
+    <t>lapsha-pshenichnaya-udon-bol</t>
+  </si>
+  <si>
+    <t>lapsha-pshenichnaya-udon-mal</t>
+  </si>
+  <si>
+    <t>lapsha-risovaya-bol</t>
+  </si>
+  <si>
+    <t>lapsha-risovaya-mal</t>
+  </si>
+  <si>
+    <t>lapsha-grechnevaya-bol</t>
+  </si>
+  <si>
+    <t>lapsha-grechnevaya-mal</t>
+  </si>
+  <si>
+    <t>lapsha-yaichnaya-bol</t>
+  </si>
+  <si>
+    <t>lapsha-yaichnaya-mal</t>
+  </si>
+  <si>
+    <t>lapsha-pshenichnaya-ramen-bol</t>
+  </si>
+  <si>
+    <t>lapsha-pshenichnaya-ramen-mal</t>
+  </si>
+  <si>
+    <t>funchoza-bol</t>
+  </si>
+  <si>
+    <t>funchoza-mal</t>
+  </si>
+  <si>
+    <t>ris-bol</t>
+  </si>
+  <si>
+    <t>ris-mal</t>
+  </si>
+  <si>
+    <t>WOK</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>WOK, вок, лапша, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>150 г</t>
+  </si>
+  <si>
+    <t>Грибы Шиитаке</t>
+  </si>
+  <si>
+    <t>Сыр Моцарелла</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Овощи жареные </t>
+  </si>
+  <si>
+    <t>Яйцо жареное</t>
+  </si>
+  <si>
+    <t>Курица жареная</t>
+  </si>
+  <si>
+    <t>Курица Терияки</t>
+  </si>
+  <si>
+    <t>Курица копченая</t>
+  </si>
+  <si>
+    <t>Говядина</t>
+  </si>
+  <si>
+    <t>Свинина</t>
+  </si>
+  <si>
+    <t>Бекон</t>
+  </si>
+  <si>
+    <t>Лосось</t>
+  </si>
+  <si>
+    <t>Лосось копченый</t>
+  </si>
+  <si>
+    <t>Креветки салатные</t>
+  </si>
+  <si>
+    <t>Креветка тигровая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мидии жареные </t>
+  </si>
+  <si>
+    <t>Кальмар</t>
+  </si>
+  <si>
+    <t>Морепродукты</t>
+  </si>
+  <si>
+    <t>ovoshi-zharenye</t>
+  </si>
+  <si>
+    <t>griby-shiitake</t>
+  </si>
+  <si>
+    <t>yaytso-zharenoe</t>
+  </si>
+  <si>
+    <t>syr-motsarella</t>
+  </si>
+  <si>
+    <t>kuritsa-zharenaya</t>
+  </si>
+  <si>
+    <t>kuritsa-teriyaki</t>
+  </si>
+  <si>
+    <t>kuritsa-kopchenya</t>
+  </si>
+  <si>
+    <t>govyadina</t>
+  </si>
+  <si>
+    <t>svinina</t>
+  </si>
+  <si>
+    <t>bekon</t>
+  </si>
+  <si>
+    <t>losos</t>
+  </si>
+  <si>
+    <t>losos-kopcheniy</t>
+  </si>
+  <si>
+    <t>krevetki-salatnye</t>
+  </si>
+  <si>
+    <t>krevetka-tigrovaya</t>
+  </si>
+  <si>
+    <t>midii-zharenye</t>
+  </si>
+  <si>
+    <t>kalmar</t>
+  </si>
+  <si>
+    <t>moreprodukty</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>45 г</t>
+  </si>
+  <si>
+    <t>40г</t>
+  </si>
+  <si>
+    <t>30 г</t>
+  </si>
+  <si>
+    <t>20 г</t>
+  </si>
+  <si>
+    <t>40 г</t>
+  </si>
+  <si>
+    <t>10 г</t>
+  </si>
+  <si>
+    <t>50 г</t>
+  </si>
+  <si>
+    <t>Терияки</t>
+  </si>
+  <si>
+    <t>Устричный</t>
+  </si>
+  <si>
+    <t>Чили кисло-сладкий</t>
+  </si>
+  <si>
+    <t>Ширачи</t>
+  </si>
+  <si>
+    <t>Шер</t>
+  </si>
+  <si>
+    <t>teriyaki</t>
+  </si>
+  <si>
+    <t>ustrichniy</t>
+  </si>
+  <si>
+    <t>chili-kislo-sladkiy</t>
+  </si>
+  <si>
+    <t>shirachi</t>
+  </si>
+  <si>
+    <t>sher</t>
+  </si>
+  <si>
+    <t>Розовый</t>
+  </si>
+  <si>
+    <t>Спайси</t>
+  </si>
+  <si>
+    <t>Сырный</t>
+  </si>
+  <si>
+    <t>Унаги</t>
+  </si>
+  <si>
+    <t>Блю Чиз</t>
+  </si>
+  <si>
+    <t>rozoviy</t>
+  </si>
+  <si>
+    <t>spaysi</t>
+  </si>
+  <si>
+    <t>syrniy</t>
+  </si>
+  <si>
+    <t>unagi</t>
+  </si>
+  <si>
+    <t>blyu-chiz</t>
+  </si>
+  <si>
+    <t>Соусы</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Соус, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>Ролл Фруктовый с бисквитом</t>
+  </si>
+  <si>
+    <t>Ролл Орех в шоколаде</t>
+  </si>
+  <si>
+    <t>Жареные бананы в кокосовой стружке</t>
+  </si>
+  <si>
+    <t>Жареное мороженое</t>
+  </si>
+  <si>
+    <t>roll-fruktoviy-s-biskvitom</t>
+  </si>
+  <si>
+    <t>roll-oreh-v-shokolade</t>
+  </si>
+  <si>
+    <t>zharenye-banany-v-kokosovoy-struzhke</t>
+  </si>
+  <si>
+    <t>zharenoe-morozhenoe</t>
+  </si>
+  <si>
+    <t>Десерты</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>Десерты, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>160 г</t>
+  </si>
+  <si>
+    <t>180 г</t>
+  </si>
+  <si>
+    <t>130 г</t>
+  </si>
+  <si>
+    <t>Морс клюквенный (бол.)</t>
+  </si>
+  <si>
+    <t>Морс клюквенный (мал.)</t>
+  </si>
+  <si>
+    <t>Морс вишневый (бол.)</t>
+  </si>
+  <si>
+    <t>Морс вишневый (мал.)</t>
+  </si>
+  <si>
+    <t>Морс облепиховый (бол.)</t>
+  </si>
+  <si>
+    <t>Морс облепиховый (мал.)</t>
+  </si>
+  <si>
+    <t>Мохито (бол.)</t>
+  </si>
+  <si>
+    <t>Мохито (мал.)</t>
+  </si>
+  <si>
+    <t>Архыз б/г</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нарзан </t>
+  </si>
+  <si>
+    <t>Боржоми</t>
+  </si>
+  <si>
+    <t>mors-klyukvenniy-bol</t>
+  </si>
+  <si>
+    <t>mors-klyukvenniy-mal</t>
+  </si>
+  <si>
+    <t>mors-vishneviy-bol</t>
+  </si>
+  <si>
+    <t>mors-vishneviy-mal</t>
+  </si>
+  <si>
+    <t>mors-oblepihoviy-bol</t>
+  </si>
+  <si>
+    <t>mors-oblepihoviy-mal</t>
+  </si>
+  <si>
+    <t>mohito-bol</t>
+  </si>
+  <si>
+    <t>mohito-mal</t>
+  </si>
+  <si>
+    <t>arhyz</t>
+  </si>
+  <si>
+    <t>narzan</t>
+  </si>
+  <si>
+    <t>borzhomi</t>
+  </si>
+  <si>
+    <t>Напитки</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>Напитки, интернет-магазин, купить, недорого, доставка, Москва</t>
+  </si>
+  <si>
+    <t>300 мл</t>
+  </si>
+  <si>
+    <t>500 мл</t>
+  </si>
+  <si>
+    <t>Лимонад Груша</t>
+  </si>
+  <si>
+    <t>Лимонад Тархун</t>
+  </si>
+  <si>
+    <t>limonad-grusha</t>
+  </si>
+  <si>
+    <t>limonad-tarhun</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Клюква, вода, сахар</t>
+  </si>
+  <si>
+    <t>Вишня, вода, сахар</t>
+  </si>
+  <si>
+    <t>Облепиха, вода, сахар</t>
+  </si>
+  <si>
+    <t>Сок яблока, вода, сахар, ароматизатор натуральный - Лимон,  ароматизатор натуральный - Мята</t>
+  </si>
+  <si>
+    <t>Банан, киви, яблоко, сливочный сыр, сахар, спринг-тесто, клубничный топпинг</t>
+  </si>
+  <si>
+    <t>Банан, шоколадная паста, грецкий орех, сливочный сыр, сахар, бисквит, чернослив, спринг-тесто</t>
+  </si>
+  <si>
+    <t>Банан, кляр, кокосовая стружка, сахарная пудра, карамель</t>
+  </si>
+  <si>
+    <t>Пломбир, бисквит, сухари, клубника, клубничный сироп</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -792,13 +1825,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="L93" sqref="L93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -823,70 +1856,70 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1">
@@ -897,54 +1930,54 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="P2" s="2"/>
       <c r="S2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="T2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1">
@@ -955,51 +1988,51 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="P3" s="2"/>
       <c r="S3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1">
@@ -1010,49 +2043,49 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="S4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1">
@@ -1063,51 +2096,51 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="M5" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="P5" s="2"/>
       <c r="S5" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15" customHeight="1">
@@ -1118,51 +2151,51 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="P6" s="2"/>
       <c r="S6" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15" customHeight="1">
@@ -1173,51 +2206,51 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="M7" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="P7" s="2"/>
       <c r="S7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="15" customHeight="1">
@@ -1228,49 +2261,49 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="O8" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="S8" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15" customHeight="1">
@@ -1281,51 +2314,51 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="P9" s="2"/>
       <c r="S9" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15" customHeight="1">
@@ -1336,53 +2369,53 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="P10" s="2"/>
       <c r="S10" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15" customHeight="1">
@@ -1393,53 +2426,53 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="P11" s="2"/>
       <c r="S11" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="15" customHeight="1">
@@ -1450,51 +2483,51 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="P12" s="2"/>
       <c r="S12" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15" customHeight="1">
@@ -1505,53 +2538,53 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="P13" s="2"/>
       <c r="S13" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15" customHeight="1">
@@ -1562,53 +2595,53 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="P14" s="2"/>
       <c r="S14" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15" customHeight="1">
@@ -1619,51 +2652,51 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="P15" s="2"/>
       <c r="S15" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="15" customHeight="1">
@@ -1674,51 +2707,51 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="P16" s="2"/>
       <c r="S16" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="15" customHeight="1">
@@ -1726,57 +2759,5270 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="H17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="S17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15" customHeight="1">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="S18" t="s">
+        <v>128</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15" customHeight="1">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="S19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="S20" t="s">
+        <v>142</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V23" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V24" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V27" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="U28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V28" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O29" t="s">
+        <v>230</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="U29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V29" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O30" t="s">
+        <v>231</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="U30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V30" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O31" t="s">
+        <v>232</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="U31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V31" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O32" t="s">
+        <v>233</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="U32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V32" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O33" t="s">
+        <v>234</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="U33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V33" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O34" t="s">
+        <v>235</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="U34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V34" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O35" t="s">
+        <v>242</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="U35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V35" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O36" t="s">
+        <v>239</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="U36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V36" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O37" t="s">
+        <v>240</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V37" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O38" t="s">
+        <v>241</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="U38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V38" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O39" t="s">
+        <v>237</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="U39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V39" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O40" t="s">
+        <v>236</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="U40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V40" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O41" t="s">
+        <v>238</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="U41" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V41" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="U42" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V42" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="U43" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V43" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="U44" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V44" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="U45" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V45" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="U46" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V46" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="U47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V47" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="U48" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V48" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="U49" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V49" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>8</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="U50" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V50" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>8</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="U51" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V51" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>9</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="U52" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V52" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="U53" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V53" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>9</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="L54" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="U54" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V54" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="S55" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="U55" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V55" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="U56" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V56" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="U57" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V57" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="L58" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="U58" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V58" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S59" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="U59" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V59" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S60" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="U60" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V60" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S61" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="U61" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V61" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="U62" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V62" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S63" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="U63" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V63" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="L64" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S64" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="U64" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V64" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S65" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="U65" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V65" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S66" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="U66" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V66" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>10</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="U67" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V67" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>10</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="L68" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S68" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="U68" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V68" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S69" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="U69" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V69" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S70" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="U70" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V70" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>11</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S71" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="U71" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V71" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>11</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="L72" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S72" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="U72" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V72" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>11</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S73" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="U73" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V73" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>11</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="L74" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S74" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="U74" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V74" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>11</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="L75" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S75" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="U75" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V75" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>11</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="L76" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S76" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="U76" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V76" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>11</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="L77" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S77" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="U77" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V77" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>11</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="L78" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S78" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="U78" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V78" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>11</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="L79" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S79" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="U79" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V79" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>11</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="L80" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="U80" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V80" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>11</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="U81" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V81" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>11</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="L82" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S82" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="U82" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V82" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>11</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="L83" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S83" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="U83" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V83" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>11</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="L84" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S84" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="U84" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V84" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>11</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S85" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="U85" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V85" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>11</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="L86" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S86" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="U86" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V86" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>11</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="L87" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S87" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="U87" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V87" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>12</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="L88" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S88" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="U88" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V88" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>12</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="L89" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S89" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="U89" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V89" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>12</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="L90" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S90" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="U90" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V90" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>12</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="L91" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S91" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="U91" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V91" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>12</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="L92" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S92" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="U92" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V92" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
         <v>13</v>
       </c>
-      <c r="S17" t="s">
-        <v>22</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="V17" s="5" t="s">
-        <v>28</v>
+      <c r="C93" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="L93" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S93" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="U93" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V93" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>13</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="L94" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S94" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="U94" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V94" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>13</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="L95" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S95" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="U95" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V95" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>13</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="L96" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S96" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="U96" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V96" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>13</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="L97" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S97" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="U97" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V97" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>13</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="L98" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S98" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="U98" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V98" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>13</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="L99" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S99" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="U99" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V99" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>13</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="L100" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S100" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="U100" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V100" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>13</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="L101" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S101" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="U101" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V101" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>13</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="L102" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="S102" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="U102" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V102" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>14</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="L103" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="S103" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="U103" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V103" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>14</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="L104" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="O104" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="S104" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="U104" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V104" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>14</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="L105" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="O105" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="S105" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="U105" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V105" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>14</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="L106" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="O106" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="S106" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="U106" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V106" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>15</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="L107" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O107" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="S107" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="U107" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V107" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>15</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="L108" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="S108" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="U108" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V108" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>15</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="L109" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O109" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="S109" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="U109" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V109" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>15</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="L110" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O110" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="S110" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="U110" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V110" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>15</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="L111" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O111" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="S111" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="U111" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V111" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>15</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="L112" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="S112" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="U112" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V112" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>15</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="L113" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O113" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="S113" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="U113" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V113" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>15</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="L114" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="S114" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="U114" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V114" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>15</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="L115" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="S115" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="U115" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V115" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>15</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="L116" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="S116" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="U116" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V116" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>15</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="L117" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="S117" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="U117" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V117" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>15</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="L118" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="S118" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="U118" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V118" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>15</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="L119" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="S119" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="U119" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V119" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1784,4 +8030,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>